--- a/predictions/Прогнозы_ETS_CM4.xlsx
+++ b/predictions/Прогнозы_ETS_CM4.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19159338.28120331</v>
+        <v>18467004.8817823</v>
       </c>
       <c r="C2" t="n">
-        <v>20847990.79664863</v>
+        <v>19009301.63042529</v>
       </c>
       <c r="D2" t="n">
-        <v>21390358.25528205</v>
+        <v>19397881.01404514</v>
       </c>
       <c r="E2" t="n">
-        <v>21779014.37155115</v>
+        <v>17411797.63633181</v>
       </c>
       <c r="F2" t="n">
-        <v>20250630.90250431</v>
+        <v>19334955.01927433</v>
       </c>
       <c r="G2" t="n">
-        <v>21939283.41794962</v>
+        <v>19877251.76791732</v>
       </c>
       <c r="H2" t="n">
-        <v>22481650.87658304</v>
+        <v>20265831.15153717</v>
       </c>
       <c r="I2" t="n">
-        <v>22870306.99285215</v>
+        <v>18279747.77382384</v>
       </c>
       <c r="J2" t="n">
-        <v>21341923.5238053</v>
+        <v>20202905.15676636</v>
       </c>
       <c r="K2" t="n">
-        <v>23030576.03925062</v>
+        <v>20745201.90540935</v>
       </c>
       <c r="L2" t="n">
-        <v>23572943.49788404</v>
+        <v>21133781.2890292</v>
       </c>
       <c r="M2" t="n">
-        <v>23961599.61415314</v>
+        <v>19147697.91131587</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15666369.03157655</v>
+        <v>13767412.84795762</v>
       </c>
       <c r="C3" t="n">
-        <v>16127368.05081965</v>
+        <v>15103501.82921218</v>
       </c>
       <c r="D3" t="n">
-        <v>17818718.84835471</v>
+        <v>15009884.68863317</v>
       </c>
       <c r="E3" t="n">
-        <v>18072266.48650523</v>
+        <v>15326947.33898911</v>
       </c>
       <c r="F3" t="n">
-        <v>19278669.30409852</v>
+        <v>15803060.35458688</v>
       </c>
       <c r="G3" t="n">
-        <v>19739668.32334162</v>
+        <v>17139149.33584145</v>
       </c>
       <c r="H3" t="n">
-        <v>21431019.12087668</v>
+        <v>17045532.19526243</v>
       </c>
       <c r="I3" t="n">
-        <v>21684566.7590272</v>
+        <v>17362594.84561837</v>
       </c>
       <c r="J3" t="n">
-        <v>22890969.57662049</v>
+        <v>17838707.86121614</v>
       </c>
       <c r="K3" t="n">
-        <v>23351968.5958636</v>
+        <v>19174796.84247071</v>
       </c>
       <c r="L3" t="n">
-        <v>25043319.39339865</v>
+        <v>19081179.70189169</v>
       </c>
       <c r="M3" t="n">
-        <v>25296867.03154917</v>
+        <v>19398242.35224763</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26595228.90628879</v>
+        <v>62840663.61327617</v>
       </c>
       <c r="C4" t="n">
-        <v>30527050.90325461</v>
+        <v>70690663.61637095</v>
       </c>
       <c r="D4" t="n">
-        <v>32973377.04434757</v>
+        <v>80468078.51182613</v>
       </c>
       <c r="E4" t="n">
-        <v>36740470.41216697</v>
+        <v>89618689.13743095</v>
       </c>
       <c r="F4" t="n">
-        <v>39435193.39159673</v>
+        <v>98800301.41951494</v>
       </c>
       <c r="G4" t="n">
-        <v>43367015.38856255</v>
+        <v>106650301.4226097</v>
       </c>
       <c r="H4" t="n">
-        <v>45813341.52965551</v>
+        <v>116427716.3180649</v>
       </c>
       <c r="I4" t="n">
-        <v>49580434.8974749</v>
+        <v>125578326.9436697</v>
       </c>
       <c r="J4" t="n">
-        <v>52275157.87690467</v>
+        <v>134759939.2257537</v>
       </c>
       <c r="K4" t="n">
-        <v>56206979.87387048</v>
+        <v>142609939.2288485</v>
       </c>
       <c r="L4" t="n">
-        <v>58653306.01496344</v>
+        <v>152387354.1243037</v>
       </c>
       <c r="M4" t="n">
-        <v>62420399.38278283</v>
+        <v>161537964.7499085</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21604680.83717785</v>
+        <v>30464018.31952117</v>
       </c>
       <c r="C5" t="n">
-        <v>24245386.04792073</v>
+        <v>31999003.33213977</v>
       </c>
       <c r="D5" t="n">
-        <v>26864547.833911</v>
+        <v>37724374.78611542</v>
       </c>
       <c r="E5" t="n">
-        <v>30148477.00149205</v>
+        <v>30136951.42378569</v>
       </c>
       <c r="F5" t="n">
-        <v>33262119.7442323</v>
+        <v>35649565.80340958</v>
       </c>
       <c r="G5" t="n">
-        <v>35902824.95497518</v>
+        <v>37184550.81602819</v>
       </c>
       <c r="H5" t="n">
-        <v>38521986.74096546</v>
+        <v>42909922.27000383</v>
       </c>
       <c r="I5" t="n">
-        <v>41805915.9085465</v>
+        <v>35322498.9076741</v>
       </c>
       <c r="J5" t="n">
-        <v>44919558.65128676</v>
+        <v>40835113.28729799</v>
       </c>
       <c r="K5" t="n">
-        <v>47560263.86202963</v>
+        <v>42370098.2999166</v>
       </c>
       <c r="L5" t="n">
-        <v>50179425.64801991</v>
+        <v>48095469.75389225</v>
       </c>
       <c r="M5" t="n">
-        <v>53463354.81560095</v>
+        <v>40508046.39156252</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11249623.4528375</v>
+        <v>34957.45205249963</v>
       </c>
       <c r="C6" t="n">
-        <v>13231503.77556499</v>
+        <v>1248797.562072489</v>
       </c>
       <c r="D6" t="n">
-        <v>13164275.85486003</v>
+        <v>69250.65935194003</v>
       </c>
       <c r="E6" t="n">
-        <v>15965176.68383819</v>
+        <v>1314988.640227784</v>
       </c>
       <c r="F6" t="n">
-        <v>13282218.85353502</v>
+        <v>-148593.1724906699</v>
       </c>
       <c r="G6" t="n">
-        <v>15264099.17626251</v>
+        <v>1065246.937529319</v>
       </c>
       <c r="H6" t="n">
-        <v>15196871.25555755</v>
+        <v>-114299.9651912295</v>
       </c>
       <c r="I6" t="n">
-        <v>17997772.08453571</v>
+        <v>1131438.015684614</v>
       </c>
       <c r="J6" t="n">
-        <v>15314814.25423253</v>
+        <v>-332143.7970338394</v>
       </c>
       <c r="K6" t="n">
-        <v>17296694.57696002</v>
+        <v>881696.31298615</v>
       </c>
       <c r="L6" t="n">
-        <v>17229466.65625506</v>
+        <v>-297850.589734399</v>
       </c>
       <c r="M6" t="n">
-        <v>20030367.48523322</v>
+        <v>947887.3911414447</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2251715.11247948</v>
+        <v>13198702.52575501</v>
       </c>
       <c r="C7" t="n">
-        <v>3042112.162912738</v>
+        <v>13385364.93507517</v>
       </c>
       <c r="D7" t="n">
-        <v>2941139.041210603</v>
+        <v>13825393.43491967</v>
       </c>
       <c r="E7" t="n">
-        <v>3487386.279143866</v>
+        <v>13776631.58731467</v>
       </c>
       <c r="F7" t="n">
-        <v>2404680.408389571</v>
+        <v>14312021.24022203</v>
       </c>
       <c r="G7" t="n">
-        <v>3195077.458822828</v>
+        <v>14498683.64954218</v>
       </c>
       <c r="H7" t="n">
-        <v>3094104.337120693</v>
+        <v>14938712.14938668</v>
       </c>
       <c r="I7" t="n">
-        <v>3640351.575053956</v>
+        <v>14889950.30178168</v>
       </c>
       <c r="J7" t="n">
-        <v>2557645.704299661</v>
+        <v>15425339.95468904</v>
       </c>
       <c r="K7" t="n">
-        <v>3348042.754732918</v>
+        <v>15612002.3640092</v>
       </c>
       <c r="L7" t="n">
-        <v>3247069.633030783</v>
+        <v>16052030.86385369</v>
       </c>
       <c r="M7" t="n">
-        <v>3793316.870964046</v>
+        <v>16003269.01624869</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1373151.019755486</v>
+        <v>18707524.09323647</v>
       </c>
       <c r="C8" t="n">
-        <v>1744172.335505814</v>
+        <v>19802645.02409838</v>
       </c>
       <c r="D8" t="n">
-        <v>1882623.18199519</v>
+        <v>20316797.32707093</v>
       </c>
       <c r="E8" t="n">
-        <v>1749389.366708661</v>
+        <v>16807162.15922761</v>
       </c>
       <c r="F8" t="n">
-        <v>1482633.941170731</v>
+        <v>19048629.58116726</v>
       </c>
       <c r="G8" t="n">
-        <v>1853655.256921059</v>
+        <v>20143750.51202917</v>
       </c>
       <c r="H8" t="n">
-        <v>1992106.103410435</v>
+        <v>20657902.81500171</v>
       </c>
       <c r="I8" t="n">
-        <v>1858872.288123907</v>
+        <v>17148267.6471584</v>
       </c>
       <c r="J8" t="n">
-        <v>1592116.862585976</v>
+        <v>19389735.06909805</v>
       </c>
       <c r="K8" t="n">
-        <v>1963138.178336304</v>
+        <v>20484855.99995996</v>
       </c>
       <c r="L8" t="n">
-        <v>2101589.02482568</v>
+        <v>20999008.3029325</v>
       </c>
       <c r="M8" t="n">
-        <v>1968355.209539152</v>
+        <v>17489373.13508919</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10630871.78299691</v>
+        <v>30279531.18260786</v>
       </c>
       <c r="C9" t="n">
-        <v>12119138.0263093</v>
+        <v>30565812.57803801</v>
       </c>
       <c r="D9" t="n">
-        <v>13535753.01458526</v>
+        <v>33577992.61486793</v>
       </c>
       <c r="E9" t="n">
-        <v>15073873.49471221</v>
+        <v>29426520.11957812</v>
       </c>
       <c r="F9" t="n">
-        <v>16399041.5433094</v>
+        <v>32402084.78728453</v>
       </c>
       <c r="G9" t="n">
-        <v>17887307.78662179</v>
+        <v>32688366.18271469</v>
       </c>
       <c r="H9" t="n">
-        <v>19303922.77489775</v>
+        <v>35700546.2195446</v>
       </c>
       <c r="I9" t="n">
-        <v>20842043.25502471</v>
+        <v>31549073.72425479</v>
       </c>
       <c r="J9" t="n">
-        <v>22167211.3036219</v>
+        <v>34524638.39196121</v>
       </c>
       <c r="K9" t="n">
-        <v>23655477.54693429</v>
+        <v>34810919.78739136</v>
       </c>
       <c r="L9" t="n">
-        <v>25072092.53521025</v>
+        <v>37823099.82422127</v>
       </c>
       <c r="M9" t="n">
-        <v>26610213.01533721</v>
+        <v>33671627.32893146</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6400902.101544693</v>
+        <v>15375942.86916707</v>
       </c>
       <c r="C10" t="n">
-        <v>6991243.509892332</v>
+        <v>16798701.01688225</v>
       </c>
       <c r="D10" t="n">
-        <v>8227661.903703826</v>
+        <v>17184652.66506993</v>
       </c>
       <c r="E10" t="n">
-        <v>10273921.21018694</v>
+        <v>16423108.36748574</v>
       </c>
       <c r="F10" t="n">
-        <v>8414918.808504514</v>
+        <v>16657287.03900973</v>
       </c>
       <c r="G10" t="n">
-        <v>9005260.216852153</v>
+        <v>18080045.18672491</v>
       </c>
       <c r="H10" t="n">
-        <v>10241678.61066365</v>
+        <v>18465996.83491259</v>
       </c>
       <c r="I10" t="n">
-        <v>12287937.91714676</v>
+        <v>17704452.5373284</v>
       </c>
       <c r="J10" t="n">
-        <v>10428935.51546434</v>
+        <v>17938631.20885239</v>
       </c>
       <c r="K10" t="n">
-        <v>11019276.92381197</v>
+        <v>19361389.35656757</v>
       </c>
       <c r="L10" t="n">
-        <v>12255695.31762347</v>
+        <v>19747341.00475525</v>
       </c>
       <c r="M10" t="n">
-        <v>14301954.62410659</v>
+        <v>18985796.70717106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1640044.388000019</v>
+        <v>19854324.43832952</v>
       </c>
       <c r="C11" t="n">
-        <v>265797.8725854675</v>
+        <v>20005911.41045677</v>
       </c>
       <c r="D11" t="n">
-        <v>1141494.628165179</v>
+        <v>20258868.33898157</v>
       </c>
       <c r="E11" t="n">
-        <v>311479.4411478438</v>
+        <v>19997830.80095896</v>
       </c>
       <c r="F11" t="n">
-        <v>1724810.949207073</v>
+        <v>21511102.27031735</v>
       </c>
       <c r="G11" t="n">
-        <v>350564.4337925222</v>
+        <v>21662689.2424446</v>
       </c>
       <c r="H11" t="n">
-        <v>1226261.189372234</v>
+        <v>21915646.17096939</v>
       </c>
       <c r="I11" t="n">
-        <v>396246.0023548985</v>
+        <v>21654608.63294679</v>
       </c>
       <c r="J11" t="n">
-        <v>1809577.510414128</v>
+        <v>23167880.10230517</v>
       </c>
       <c r="K11" t="n">
-        <v>435330.9949995768</v>
+        <v>23319467.07443243</v>
       </c>
       <c r="L11" t="n">
-        <v>1311027.750579289</v>
+        <v>23572424.00295722</v>
       </c>
       <c r="M11" t="n">
-        <v>481012.5635619531</v>
+        <v>23311386.46493462</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>462813.6939503306</v>
+        <v>45798232.53589308</v>
       </c>
       <c r="C12" t="n">
-        <v>547315.0858802239</v>
+        <v>48126528.14491827</v>
       </c>
       <c r="D12" t="n">
-        <v>885547.5764172006</v>
+        <v>42322889.51308584</v>
       </c>
       <c r="E12" t="n">
-        <v>536035.902799669</v>
+        <v>42767162.76895905</v>
       </c>
       <c r="F12" t="n">
-        <v>375896.4240930837</v>
+        <v>47472539.4017496</v>
       </c>
       <c r="G12" t="n">
-        <v>460397.816022977</v>
+        <v>49800835.0107748</v>
       </c>
       <c r="H12" t="n">
-        <v>798630.3065599537</v>
+        <v>43997196.37894237</v>
       </c>
       <c r="I12" t="n">
-        <v>449118.6329424221</v>
+        <v>44441469.63481557</v>
       </c>
       <c r="J12" t="n">
-        <v>288979.1542358368</v>
+        <v>49146846.26760613</v>
       </c>
       <c r="K12" t="n">
-        <v>373480.5461657301</v>
+        <v>51475141.87663133</v>
       </c>
       <c r="L12" t="n">
-        <v>711713.0367027068</v>
+        <v>45671503.2447989</v>
       </c>
       <c r="M12" t="n">
-        <v>362201.3630851752</v>
+        <v>46115776.5006721</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3237689.428041178</v>
+        <v>39942466.8957821</v>
       </c>
       <c r="C13" t="n">
-        <v>3546547.920607305</v>
+        <v>40320735.58817723</v>
       </c>
       <c r="D13" t="n">
-        <v>3972717.397212558</v>
+        <v>39431385.84804815</v>
       </c>
       <c r="E13" t="n">
-        <v>4227177.367228218</v>
+        <v>37492160.79451869</v>
       </c>
       <c r="F13" t="n">
-        <v>4636345.998132682</v>
+        <v>40467121.01294346</v>
       </c>
       <c r="G13" t="n">
-        <v>4945204.49069881</v>
+        <v>40845389.7053386</v>
       </c>
       <c r="H13" t="n">
-        <v>5371373.967304062</v>
+        <v>39956039.96520951</v>
       </c>
       <c r="I13" t="n">
-        <v>5625833.937319723</v>
+        <v>38016814.91168006</v>
       </c>
       <c r="J13" t="n">
-        <v>6035002.568224187</v>
+        <v>40991775.13010482</v>
       </c>
       <c r="K13" t="n">
-        <v>6343861.060790314</v>
+        <v>41370043.82249996</v>
       </c>
       <c r="L13" t="n">
-        <v>6770030.537395567</v>
+        <v>40480694.08237088</v>
       </c>
       <c r="M13" t="n">
-        <v>7024490.507411228</v>
+        <v>38541469.02884142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-346054.5110794019</v>
+        <v>990203.0026284573</v>
       </c>
       <c r="C14" t="n">
-        <v>224797.6403442632</v>
+        <v>1125641.316775206</v>
       </c>
       <c r="D14" t="n">
-        <v>177875.5615530006</v>
+        <v>1083809.904667044</v>
       </c>
       <c r="E14" t="n">
-        <v>25747.06018546376</v>
+        <v>968971.5317337487</v>
       </c>
       <c r="F14" t="n">
-        <v>-361363.5241611676</v>
+        <v>1078305.052347624</v>
       </c>
       <c r="G14" t="n">
-        <v>209488.6272624975</v>
+        <v>1213743.366494373</v>
       </c>
       <c r="H14" t="n">
-        <v>162566.548471235</v>
+        <v>1171911.954386211</v>
       </c>
       <c r="I14" t="n">
-        <v>10438.04710369808</v>
+        <v>1057073.581452916</v>
       </c>
       <c r="J14" t="n">
-        <v>-376672.5372429332</v>
+        <v>1166407.102066791</v>
       </c>
       <c r="K14" t="n">
-        <v>194179.6141807318</v>
+        <v>1301845.41621354</v>
       </c>
       <c r="L14" t="n">
-        <v>147257.5353894693</v>
+        <v>1260014.004105377</v>
       </c>
       <c r="M14" t="n">
-        <v>-4870.965978067603</v>
+        <v>1145175.631172083</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1091362.452209457</v>
+        <v>4604055.957698289</v>
       </c>
       <c r="C15" t="n">
-        <v>1123477.352519997</v>
+        <v>4934222.172743038</v>
       </c>
       <c r="D15" t="n">
-        <v>1168490.454219576</v>
+        <v>5372584.175624111</v>
       </c>
       <c r="E15" t="n">
-        <v>1410940.73918529</v>
+        <v>4791218.003350173</v>
       </c>
       <c r="F15" t="n">
-        <v>1329811.150776317</v>
+        <v>5037133.285687245</v>
       </c>
       <c r="G15" t="n">
-        <v>1361926.051086858</v>
+        <v>5367299.500731994</v>
       </c>
       <c r="H15" t="n">
-        <v>1406939.152786436</v>
+        <v>5805661.503613067</v>
       </c>
       <c r="I15" t="n">
-        <v>1649389.437752151</v>
+        <v>5224295.331339129</v>
       </c>
       <c r="J15" t="n">
-        <v>1568259.849343178</v>
+        <v>5470210.613676202</v>
       </c>
       <c r="K15" t="n">
-        <v>1600374.749653718</v>
+        <v>5800376.828720951</v>
       </c>
       <c r="L15" t="n">
-        <v>1645387.851353297</v>
+        <v>6238738.831602023</v>
       </c>
       <c r="M15" t="n">
-        <v>1887838.136319011</v>
+        <v>5657372.659328085</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1649674.223062797</v>
+        <v>9961539.983948605</v>
       </c>
       <c r="C16" t="n">
-        <v>1776699.601146556</v>
+        <v>10675514.84896016</v>
       </c>
       <c r="D16" t="n">
-        <v>1796508.342061357</v>
+        <v>10848242.4888867</v>
       </c>
       <c r="E16" t="n">
-        <v>1925866.322530159</v>
+        <v>10945029.04067488</v>
       </c>
       <c r="F16" t="n">
-        <v>1922081.107112446</v>
+        <v>10695088.07009142</v>
       </c>
       <c r="G16" t="n">
-        <v>2049106.485196205</v>
+        <v>11409062.93510298</v>
       </c>
       <c r="H16" t="n">
-        <v>2068915.226111006</v>
+        <v>11581790.57502952</v>
       </c>
       <c r="I16" t="n">
-        <v>2198273.206579808</v>
+        <v>11678577.12681769</v>
       </c>
       <c r="J16" t="n">
-        <v>2194487.991162096</v>
+        <v>11428636.15623424</v>
       </c>
       <c r="K16" t="n">
-        <v>2321513.369245855</v>
+        <v>12142611.0212458</v>
       </c>
       <c r="L16" t="n">
-        <v>2341322.110160657</v>
+        <v>12315338.66117234</v>
       </c>
       <c r="M16" t="n">
-        <v>2470680.090629458</v>
+        <v>12412125.21296051</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6558812.764160827</v>
+        <v>6252883.039762329</v>
       </c>
       <c r="C17" t="n">
-        <v>6401506.463131677</v>
+        <v>6218230.173647255</v>
       </c>
       <c r="D17" t="n">
-        <v>6515526.885805869</v>
+        <v>6563121.720634965</v>
       </c>
       <c r="E17" t="n">
-        <v>6829689.312526652</v>
+        <v>5948030.949385568</v>
       </c>
       <c r="F17" t="n">
-        <v>7103212.940368101</v>
+        <v>6821230.660833269</v>
       </c>
       <c r="G17" t="n">
-        <v>6945906.639338952</v>
+        <v>6786577.794718195</v>
       </c>
       <c r="H17" t="n">
-        <v>7059927.062013144</v>
+        <v>7131469.341705905</v>
       </c>
       <c r="I17" t="n">
-        <v>7374089.488733926</v>
+        <v>6516378.570456509</v>
       </c>
       <c r="J17" t="n">
-        <v>7647613.116575375</v>
+        <v>7389578.281904209</v>
       </c>
       <c r="K17" t="n">
-        <v>7490306.815546226</v>
+        <v>7354925.415789135</v>
       </c>
       <c r="L17" t="n">
-        <v>7604327.238220418</v>
+        <v>7699816.962776845</v>
       </c>
       <c r="M17" t="n">
-        <v>7918489.6649412</v>
+        <v>7084726.191527449</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>174142.1410832976</v>
+        <v>3613826.103346756</v>
       </c>
       <c r="C18" t="n">
-        <v>295683.3451015935</v>
+        <v>3503523.535025306</v>
       </c>
       <c r="D18" t="n">
-        <v>223192.2561979833</v>
+        <v>3472184.568943092</v>
       </c>
       <c r="E18" t="n">
-        <v>696582.3717692443</v>
+        <v>3815240.042289826</v>
       </c>
       <c r="F18" t="n">
-        <v>-209363.0274149069</v>
+        <v>3799859.65252788</v>
       </c>
       <c r="G18" t="n">
-        <v>-87821.823396611</v>
+        <v>3689557.08420643</v>
       </c>
       <c r="H18" t="n">
-        <v>-160312.9123002211</v>
+        <v>3658218.118124216</v>
       </c>
       <c r="I18" t="n">
-        <v>313077.2032710399</v>
+        <v>4001273.59147095</v>
       </c>
       <c r="J18" t="n">
-        <v>-592868.1959131113</v>
+        <v>3985893.201709004</v>
       </c>
       <c r="K18" t="n">
-        <v>-471326.9918948154</v>
+        <v>3875590.633387554</v>
       </c>
       <c r="L18" t="n">
-        <v>-543818.0807984256</v>
+        <v>3844251.66730534</v>
       </c>
       <c r="M18" t="n">
-        <v>-70427.96522716456</v>
+        <v>4187307.140652074</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34781.76021879062</v>
+        <v>5965926.644448243</v>
       </c>
       <c r="C19" t="n">
-        <v>-69072.91134578935</v>
+        <v>6392507.606716446</v>
       </c>
       <c r="D19" t="n">
-        <v>-15633.26374063341</v>
+        <v>6217237.873326809</v>
       </c>
       <c r="E19" t="n">
-        <v>-55743.57429386571</v>
+        <v>4665427.572927037</v>
       </c>
       <c r="F19" t="n">
-        <v>6273.023890480668</v>
+        <v>6075525.688289698</v>
       </c>
       <c r="G19" t="n">
-        <v>-97581.64767409931</v>
+        <v>6502106.650557901</v>
       </c>
       <c r="H19" t="n">
-        <v>-44142.00006894337</v>
+        <v>6326836.917168264</v>
       </c>
       <c r="I19" t="n">
-        <v>-84252.31062217568</v>
+        <v>4775026.616768492</v>
       </c>
       <c r="J19" t="n">
-        <v>-22235.7124378293</v>
+        <v>6185124.732131153</v>
       </c>
       <c r="K19" t="n">
-        <v>-126090.3840024093</v>
+        <v>6611705.694399356</v>
       </c>
       <c r="L19" t="n">
-        <v>-72650.73639725335</v>
+        <v>6436435.961009719</v>
       </c>
       <c r="M19" t="n">
-        <v>-112761.0469504857</v>
+        <v>4884625.660609948</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1803609.776646505</v>
+        <v>1911924.58910841</v>
       </c>
       <c r="C20" t="n">
-        <v>2253952.700142843</v>
+        <v>1492796.614467594</v>
       </c>
       <c r="D20" t="n">
-        <v>2184480.056014672</v>
+        <v>318605.6793413649</v>
       </c>
       <c r="E20" t="n">
-        <v>2426799.431955129</v>
+        <v>484565.9542037413</v>
       </c>
       <c r="F20" t="n">
-        <v>1795358.367453487</v>
+        <v>1422937.701095095</v>
       </c>
       <c r="G20" t="n">
-        <v>2245701.290949825</v>
+        <v>1003809.726454279</v>
       </c>
       <c r="H20" t="n">
-        <v>2176228.646821653</v>
+        <v>-170381.2086719496</v>
       </c>
       <c r="I20" t="n">
-        <v>2418548.02276211</v>
+        <v>-4420.933809573122</v>
       </c>
       <c r="J20" t="n">
-        <v>1787106.958260468</v>
+        <v>933950.8130817809</v>
       </c>
       <c r="K20" t="n">
-        <v>2237449.881756806</v>
+        <v>514822.8384409649</v>
       </c>
       <c r="L20" t="n">
-        <v>2167977.237628635</v>
+        <v>-659368.096685264</v>
       </c>
       <c r="M20" t="n">
-        <v>2410296.613569092</v>
+        <v>-493407.8218228876</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1328821.946854813</v>
+        <v>3812485.649012726</v>
       </c>
       <c r="C21" t="n">
-        <v>1682101.725439044</v>
+        <v>3785618.500324737</v>
       </c>
       <c r="D21" t="n">
-        <v>1424807.206242739</v>
+        <v>4103220.067181713</v>
       </c>
       <c r="E21" t="n">
-        <v>1484800.684766276</v>
+        <v>3542391.025790489</v>
       </c>
       <c r="F21" t="n">
-        <v>1367907.82474052</v>
+        <v>3913131.063948212</v>
       </c>
       <c r="G21" t="n">
-        <v>1721187.603324752</v>
+        <v>3886263.915260224</v>
       </c>
       <c r="H21" t="n">
-        <v>1463893.084128446</v>
+        <v>4203865.482117199</v>
       </c>
       <c r="I21" t="n">
-        <v>1523886.562651983</v>
+        <v>3643036.440725976</v>
       </c>
       <c r="J21" t="n">
-        <v>1406993.702626228</v>
+        <v>4013776.478883699</v>
       </c>
       <c r="K21" t="n">
-        <v>1760273.481210459</v>
+        <v>3986909.33019571</v>
       </c>
       <c r="L21" t="n">
-        <v>1502978.962014154</v>
+        <v>4304510.897052686</v>
       </c>
       <c r="M21" t="n">
-        <v>1562972.440537691</v>
+        <v>3743681.855661462</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>379396.9593661716</v>
+        <v>13078293.92535926</v>
       </c>
       <c r="C22" t="n">
-        <v>250128.7856601759</v>
+        <v>12859734.37690467</v>
       </c>
       <c r="D22" t="n">
-        <v>522069.7150268515</v>
+        <v>13026409.09423698</v>
       </c>
       <c r="E22" t="n">
-        <v>568394.5704974489</v>
+        <v>12389070.71865905</v>
       </c>
       <c r="F22" t="n">
-        <v>411012.4018819635</v>
+        <v>13750967.31008416</v>
       </c>
       <c r="G22" t="n">
-        <v>281744.2281759677</v>
+        <v>13532407.76162957</v>
       </c>
       <c r="H22" t="n">
-        <v>553685.1575426433</v>
+        <v>13699082.47896188</v>
       </c>
       <c r="I22" t="n">
-        <v>600010.0130132408</v>
+        <v>13061744.10338395</v>
       </c>
       <c r="J22" t="n">
-        <v>442627.8443977553</v>
+        <v>14423640.69480906</v>
       </c>
       <c r="K22" t="n">
-        <v>313359.6706917596</v>
+        <v>14205081.14635447</v>
       </c>
       <c r="L22" t="n">
-        <v>585300.6000584351</v>
+        <v>14371755.86368678</v>
       </c>
       <c r="M22" t="n">
-        <v>631625.4555290326</v>
+        <v>13734417.48810885</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-29558.72261961411</v>
+        <v>6545346.834575799</v>
       </c>
       <c r="C23" t="n">
-        <v>-5256.880695712663</v>
+        <v>6717303.55875489</v>
       </c>
       <c r="D23" t="n">
-        <v>-16748.59843143243</v>
+        <v>8444827.627825618</v>
       </c>
       <c r="E23" t="n">
-        <v>34559.40508994234</v>
+        <v>6261940.185015236</v>
       </c>
       <c r="F23" t="n">
-        <v>-30506.50588668252</v>
+        <v>6507015.030937401</v>
       </c>
       <c r="G23" t="n">
-        <v>-6204.663962781077</v>
+        <v>6678971.755116492</v>
       </c>
       <c r="H23" t="n">
-        <v>-17696.38169850084</v>
+        <v>8406495.824187219</v>
       </c>
       <c r="I23" t="n">
-        <v>33611.62182287392</v>
+        <v>6223608.381376837</v>
       </c>
       <c r="J23" t="n">
-        <v>-31454.28915375093</v>
+        <v>6468683.227299002</v>
       </c>
       <c r="K23" t="n">
-        <v>-7152.447229849492</v>
+        <v>6640639.951478093</v>
       </c>
       <c r="L23" t="n">
-        <v>-18644.16496556926</v>
+        <v>8368164.02054882</v>
       </c>
       <c r="M23" t="n">
-        <v>32663.83855580551</v>
+        <v>6185276.577738439</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11992378.27291595</v>
+        <v>10380241.5312048</v>
       </c>
       <c r="C24" t="n">
-        <v>12903444.33023531</v>
+        <v>11276517.49511788</v>
       </c>
       <c r="D24" t="n">
-        <v>14022447.83411739</v>
+        <v>11703282.53562456</v>
       </c>
       <c r="E24" t="n">
-        <v>13818794.42183994</v>
+        <v>9898733.192881286</v>
       </c>
       <c r="F24" t="n">
-        <v>12456548.87519943</v>
+        <v>11026338.17125653</v>
       </c>
       <c r="G24" t="n">
-        <v>13367614.93251879</v>
+        <v>11922614.1351696</v>
       </c>
       <c r="H24" t="n">
-        <v>14486618.43640087</v>
+        <v>12349379.17567628</v>
       </c>
       <c r="I24" t="n">
-        <v>14282965.02412342</v>
+        <v>10544829.83293301</v>
       </c>
       <c r="J24" t="n">
-        <v>12920719.47748291</v>
+        <v>11672434.81130825</v>
       </c>
       <c r="K24" t="n">
-        <v>13831785.53480227</v>
+        <v>12568710.77522132</v>
       </c>
       <c r="L24" t="n">
-        <v>14950789.03868434</v>
+        <v>12995475.815728</v>
       </c>
       <c r="M24" t="n">
-        <v>14747135.6264069</v>
+        <v>11190926.47298473</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2475320.527846254</v>
+        <v>4508358.212026648</v>
       </c>
       <c r="C25" t="n">
-        <v>3296370.642920005</v>
+        <v>5206609.035055009</v>
       </c>
       <c r="D25" t="n">
-        <v>3101917.490990696</v>
+        <v>5157324.557909806</v>
       </c>
       <c r="E25" t="n">
-        <v>3116919.7714994</v>
+        <v>4230791.996837774</v>
       </c>
       <c r="F25" t="n">
-        <v>2615911.30990546</v>
+        <v>4618265.39837651</v>
       </c>
       <c r="G25" t="n">
-        <v>3436961.424979211</v>
+        <v>5316516.22140487</v>
       </c>
       <c r="H25" t="n">
-        <v>3242508.273049902</v>
+        <v>5267231.744259668</v>
       </c>
       <c r="I25" t="n">
-        <v>3257510.553558605</v>
+        <v>4340699.183187636</v>
       </c>
       <c r="J25" t="n">
-        <v>2756502.091964665</v>
+        <v>4728172.584726371</v>
       </c>
       <c r="K25" t="n">
-        <v>3577552.207038417</v>
+        <v>5426423.407754731</v>
       </c>
       <c r="L25" t="n">
-        <v>3383099.055109108</v>
+        <v>5377138.930609529</v>
       </c>
       <c r="M25" t="n">
-        <v>3398101.335617811</v>
+        <v>4450606.369537497</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11753642.89608647</v>
+        <v>10903632.71390251</v>
       </c>
       <c r="C26" t="n">
-        <v>12418009.26610665</v>
+        <v>10691425.82426268</v>
       </c>
       <c r="D26" t="n">
-        <v>12983667.8670485</v>
+        <v>11562170.76097118</v>
       </c>
       <c r="E26" t="n">
-        <v>13724180.77129802</v>
+        <v>10724099.36634186</v>
       </c>
       <c r="F26" t="n">
-        <v>12689039.16145009</v>
+        <v>11473320.98330825</v>
       </c>
       <c r="G26" t="n">
-        <v>13353405.53147027</v>
+        <v>11261114.09366842</v>
       </c>
       <c r="H26" t="n">
-        <v>13919064.13241212</v>
+        <v>12131859.03037691</v>
       </c>
       <c r="I26" t="n">
-        <v>14659577.03666164</v>
+        <v>11293787.6357476</v>
       </c>
       <c r="J26" t="n">
-        <v>13624435.42681371</v>
+        <v>12043009.25271399</v>
       </c>
       <c r="K26" t="n">
-        <v>14288801.79683388</v>
+        <v>11830802.36307415</v>
       </c>
       <c r="L26" t="n">
-        <v>14854460.39777574</v>
+        <v>12701547.29978265</v>
       </c>
       <c r="M26" t="n">
-        <v>15594973.30202526</v>
+        <v>11863475.90515334</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16586766.53582799</v>
+        <v>3157669.701240107</v>
       </c>
       <c r="C27" t="n">
-        <v>18415802.2454256</v>
+        <v>3742655.32918728</v>
       </c>
       <c r="D27" t="n">
-        <v>18452936.88738149</v>
+        <v>3742469.438188198</v>
       </c>
       <c r="E27" t="n">
-        <v>20790740.6608709</v>
+        <v>2786565.954951321</v>
       </c>
       <c r="F27" t="n">
-        <v>17943035.72506998</v>
+        <v>3194800.66312349</v>
       </c>
       <c r="G27" t="n">
-        <v>19772071.43466759</v>
+        <v>3779786.291070663</v>
       </c>
       <c r="H27" t="n">
-        <v>19809206.07662348</v>
+        <v>3779600.400071581</v>
       </c>
       <c r="I27" t="n">
-        <v>22147009.85011289</v>
+        <v>2823696.916834704</v>
       </c>
       <c r="J27" t="n">
-        <v>19299304.91431198</v>
+        <v>3231931.625006873</v>
       </c>
       <c r="K27" t="n">
-        <v>21128340.62390959</v>
+        <v>3816917.252954046</v>
       </c>
       <c r="L27" t="n">
-        <v>21165475.26586547</v>
+        <v>3816731.361954964</v>
       </c>
       <c r="M27" t="n">
-        <v>23503279.03935488</v>
+        <v>2860827.878718087</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19825649.98304244</v>
+        <v>10636437.70142852</v>
       </c>
       <c r="C28" t="n">
-        <v>20040054.46356663</v>
+        <v>11681166.0720967</v>
       </c>
       <c r="D28" t="n">
-        <v>21462802.71925783</v>
+        <v>12326448.06297503</v>
       </c>
       <c r="E28" t="n">
-        <v>21848971.42026044</v>
+        <v>9202180.487769959</v>
       </c>
       <c r="F28" t="n">
-        <v>21477797.20659769</v>
+        <v>11160700.1355285</v>
       </c>
       <c r="G28" t="n">
-        <v>21692201.68712188</v>
+        <v>12205428.50619668</v>
       </c>
       <c r="H28" t="n">
-        <v>23114949.94281308</v>
+        <v>12850710.49707501</v>
       </c>
       <c r="I28" t="n">
-        <v>23501118.64381569</v>
+        <v>9726442.921869939</v>
       </c>
       <c r="J28" t="n">
-        <v>23129944.43015295</v>
+        <v>11684962.56962848</v>
       </c>
       <c r="K28" t="n">
-        <v>23344348.91067713</v>
+        <v>12729690.94029666</v>
       </c>
       <c r="L28" t="n">
-        <v>24767097.16636833</v>
+        <v>13374972.93117499</v>
       </c>
       <c r="M28" t="n">
-        <v>25153265.86737094</v>
+        <v>10250705.35596992</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>23067282.41910308</v>
+        <v>1907280.8121466</v>
       </c>
       <c r="C29" t="n">
-        <v>24980524.14171848</v>
+        <v>2032646.301387307</v>
       </c>
       <c r="D29" t="n">
-        <v>25677928.67132165</v>
+        <v>1983823.527697638</v>
       </c>
       <c r="E29" t="n">
-        <v>26427100.81306039</v>
+        <v>1989912.640602012</v>
       </c>
       <c r="F29" t="n">
-        <v>27164237.4491121</v>
+        <v>2068382.113615478</v>
       </c>
       <c r="G29" t="n">
-        <v>29077479.1717275</v>
+        <v>2193747.602856185</v>
       </c>
       <c r="H29" t="n">
-        <v>29774883.70133066</v>
+        <v>2144924.829166516</v>
       </c>
       <c r="I29" t="n">
-        <v>30524055.84306941</v>
+        <v>2151013.94207089</v>
       </c>
       <c r="J29" t="n">
-        <v>31261192.47912112</v>
+        <v>2229483.415084356</v>
       </c>
       <c r="K29" t="n">
-        <v>33174434.20173651</v>
+        <v>2354848.904325062</v>
       </c>
       <c r="L29" t="n">
-        <v>33871838.73133967</v>
+        <v>2306026.130635393</v>
       </c>
       <c r="M29" t="n">
-        <v>34621010.87307841</v>
+        <v>2312115.243539767</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>44474329.20461892</v>
+        <v>417233.5455786105</v>
       </c>
       <c r="C30" t="n">
-        <v>48197794.37878496</v>
+        <v>465554.952228546</v>
       </c>
       <c r="D30" t="n">
-        <v>50526113.81651213</v>
+        <v>577098.5968891056</v>
       </c>
       <c r="E30" t="n">
-        <v>44722535.56195033</v>
+        <v>509156.3177193799</v>
       </c>
       <c r="F30" t="n">
-        <v>46274610.22842185</v>
+        <v>457026.8582678091</v>
       </c>
       <c r="G30" t="n">
-        <v>49998075.4025879</v>
+        <v>505348.2649177447</v>
       </c>
       <c r="H30" t="n">
-        <v>52326394.84031507</v>
+        <v>616891.9095783043</v>
       </c>
       <c r="I30" t="n">
-        <v>46522816.58575327</v>
+        <v>548949.6304085786</v>
       </c>
       <c r="J30" t="n">
-        <v>48074891.25222479</v>
+        <v>496820.1709570078</v>
       </c>
       <c r="K30" t="n">
-        <v>51798356.42639083</v>
+        <v>545141.5776069433</v>
       </c>
       <c r="L30" t="n">
-        <v>54126675.864118</v>
+        <v>656685.2222675029</v>
       </c>
       <c r="M30" t="n">
-        <v>48323097.60955621</v>
+        <v>588742.9430977772</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38135001.83691998</v>
+        <v>950633.8054813413</v>
       </c>
       <c r="C31" t="n">
-        <v>41149840.01020912</v>
+        <v>979629.571175482</v>
       </c>
       <c r="D31" t="n">
-        <v>41528112.83916995</v>
+        <v>1004679.44140469</v>
       </c>
       <c r="E31" t="n">
-        <v>40638767.21823855</v>
+        <v>1049077.595418053</v>
       </c>
       <c r="F31" t="n">
-        <v>38845499.46623458</v>
+        <v>1004984.204007038</v>
       </c>
       <c r="G31" t="n">
-        <v>41860337.63952372</v>
+        <v>1033979.969701178</v>
       </c>
       <c r="H31" t="n">
-        <v>42238610.46848455</v>
+        <v>1059029.839930386</v>
       </c>
       <c r="I31" t="n">
-        <v>41349264.84755315</v>
+        <v>1103427.99394375</v>
       </c>
       <c r="J31" t="n">
-        <v>39555997.09554918</v>
+        <v>1059334.602532734</v>
       </c>
       <c r="K31" t="n">
-        <v>42570835.26883832</v>
+        <v>1088330.368226874</v>
       </c>
       <c r="L31" t="n">
-        <v>42949108.09779915</v>
+        <v>1113380.238456083</v>
       </c>
       <c r="M31" t="n">
-        <v>42059762.47686775</v>
+        <v>1157778.392469446</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1506893.900599237</v>
+        <v>1713721.428286401</v>
       </c>
       <c r="C32" t="n">
-        <v>1637326.566413155</v>
+        <v>1745629.214026421</v>
       </c>
       <c r="D32" t="n">
-        <v>1854454.910088309</v>
+        <v>1864727.498955111</v>
       </c>
       <c r="E32" t="n">
-        <v>1891925.94887015</v>
+        <v>1753349.337005492</v>
       </c>
       <c r="F32" t="n">
-        <v>1957160.288708932</v>
+        <v>1860917.490997366</v>
       </c>
       <c r="G32" t="n">
-        <v>2087592.95452285</v>
+        <v>1892825.276737386</v>
       </c>
       <c r="H32" t="n">
-        <v>2304721.298198004</v>
+        <v>2011923.561666076</v>
       </c>
       <c r="I32" t="n">
-        <v>2342192.336979846</v>
+        <v>1900545.399716457</v>
       </c>
       <c r="J32" t="n">
-        <v>2407426.676818627</v>
+        <v>2008113.553708331</v>
       </c>
       <c r="K32" t="n">
-        <v>2537859.342632546</v>
+        <v>2040021.339448351</v>
       </c>
       <c r="L32" t="n">
-        <v>2754987.686307699</v>
+        <v>2159119.624377041</v>
       </c>
       <c r="M32" t="n">
-        <v>2792458.725089541</v>
+        <v>2047741.462427422</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4384220.982258624</v>
+        <v>2833897.083209568</v>
       </c>
       <c r="C33" t="n">
-        <v>4555500.585391562</v>
+        <v>2906306.828998213</v>
       </c>
       <c r="D33" t="n">
-        <v>4885667.495929817</v>
+        <v>3065514.239236311</v>
       </c>
       <c r="E33" t="n">
-        <v>5324030.161034631</v>
+        <v>3003458.558966622</v>
       </c>
       <c r="F33" t="n">
-        <v>4809934.651107906</v>
+        <v>3075532.360460897</v>
       </c>
       <c r="G33" t="n">
-        <v>4981214.254240844</v>
+        <v>3147942.106249542</v>
       </c>
       <c r="H33" t="n">
-        <v>5311381.164779099</v>
+        <v>3307149.51648764</v>
       </c>
       <c r="I33" t="n">
-        <v>5749743.829883913</v>
+        <v>3245093.836217951</v>
       </c>
       <c r="J33" t="n">
-        <v>5235648.319957188</v>
+        <v>3317167.637712227</v>
       </c>
       <c r="K33" t="n">
-        <v>5406927.923090126</v>
+        <v>3389577.383500871</v>
       </c>
       <c r="L33" t="n">
-        <v>5737094.833628381</v>
+        <v>3548784.793738969</v>
       </c>
       <c r="M33" t="n">
-        <v>6175457.498733195</v>
+        <v>3486729.113469281</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12472257.94425819</v>
+        <v>3023930.216387327</v>
       </c>
       <c r="C34" t="n">
-        <v>11987708.68315049</v>
+        <v>2881381.841939585</v>
       </c>
       <c r="D34" t="n">
-        <v>12701724.85716491</v>
+        <v>3112219.525077912</v>
       </c>
       <c r="E34" t="n">
-        <v>12874534.69692596</v>
+        <v>2988144.625384022</v>
       </c>
       <c r="F34" t="n">
-        <v>13417481.27496975</v>
+        <v>3131584.42645106</v>
       </c>
       <c r="G34" t="n">
-        <v>12932932.01386205</v>
+        <v>2989036.052003318</v>
       </c>
       <c r="H34" t="n">
-        <v>13646948.18787648</v>
+        <v>3219873.735141645</v>
       </c>
       <c r="I34" t="n">
-        <v>13819758.02763753</v>
+        <v>3095798.835447756</v>
       </c>
       <c r="J34" t="n">
-        <v>14362704.60568132</v>
+        <v>3239238.636514793</v>
       </c>
       <c r="K34" t="n">
-        <v>13878155.34457362</v>
+        <v>3096690.262067052</v>
       </c>
       <c r="L34" t="n">
-        <v>14592171.51858805</v>
+        <v>3327527.945205378</v>
       </c>
       <c r="M34" t="n">
-        <v>14764981.35834909</v>
+        <v>3203453.045511489</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5689506.578020542</v>
+        <v>1310085.723168833</v>
       </c>
       <c r="C35" t="n">
-        <v>6292682.110437168</v>
+        <v>1443402.183731912</v>
       </c>
       <c r="D35" t="n">
-        <v>6258032.586116761</v>
+        <v>1405073.539467188</v>
       </c>
       <c r="E35" t="n">
-        <v>6602927.345135485</v>
+        <v>1359115.492322373</v>
       </c>
       <c r="F35" t="n">
-        <v>6264389.059404037</v>
+        <v>1423908.870481622</v>
       </c>
       <c r="G35" t="n">
-        <v>6867564.591820663</v>
+        <v>1557225.331044701</v>
       </c>
       <c r="H35" t="n">
-        <v>6832915.067500256</v>
+        <v>1518896.686779977</v>
       </c>
       <c r="I35" t="n">
-        <v>7177809.82651898</v>
+        <v>1472938.639635162</v>
       </c>
       <c r="J35" t="n">
-        <v>6839271.540787532</v>
+        <v>1537732.017794412</v>
       </c>
       <c r="K35" t="n">
-        <v>7442447.073204158</v>
+        <v>1671048.478357491</v>
       </c>
       <c r="L35" t="n">
-        <v>7407797.548883751</v>
+        <v>1632719.834092767</v>
       </c>
       <c r="M35" t="n">
-        <v>7752692.307902475</v>
+        <v>1586761.786947951</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3794969.257685545</v>
+        <v>1088101.113816693</v>
       </c>
       <c r="C36" t="n">
-        <v>3718711.326842527</v>
+        <v>895086.2417413694</v>
       </c>
       <c r="D36" t="n">
-        <v>3608408.951151036</v>
+        <v>812941.5574444928</v>
       </c>
       <c r="E36" t="n">
-        <v>3577071.765199236</v>
+        <v>832248.5424644789</v>
       </c>
       <c r="F36" t="n">
-        <v>3983086.165303789</v>
+        <v>1109821.170211927</v>
       </c>
       <c r="G36" t="n">
-        <v>3906828.234460771</v>
+        <v>916806.2981366034</v>
       </c>
       <c r="H36" t="n">
-        <v>3796525.858769279</v>
+        <v>834661.6138397269</v>
       </c>
       <c r="I36" t="n">
-        <v>3765188.672817479</v>
+        <v>853968.5988597129</v>
       </c>
       <c r="J36" t="n">
-        <v>4171203.072922032</v>
+        <v>1131541.226607162</v>
       </c>
       <c r="K36" t="n">
-        <v>4094945.142079014</v>
+        <v>938526.3545318375</v>
       </c>
       <c r="L36" t="n">
-        <v>3984642.766387523</v>
+        <v>856381.670234961</v>
       </c>
       <c r="M36" t="n">
-        <v>3953305.580435722</v>
+        <v>875688.655254947</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4299179.420591934</v>
+        <v>3209437.217961608</v>
       </c>
       <c r="C37" t="n">
-        <v>5876835.695692237</v>
+        <v>3639797.70071853</v>
       </c>
       <c r="D37" t="n">
-        <v>6303414.320315191</v>
+        <v>3316880.522487101</v>
       </c>
       <c r="E37" t="n">
-        <v>6128142.33287993</v>
+        <v>2880690.37684365</v>
       </c>
       <c r="F37" t="n">
-        <v>4394807.170676833</v>
+        <v>3327608.755452986</v>
       </c>
       <c r="G37" t="n">
-        <v>5972463.445777137</v>
+        <v>3757969.238209907</v>
       </c>
       <c r="H37" t="n">
-        <v>6399042.07040009</v>
+        <v>3435052.059978479</v>
       </c>
       <c r="I37" t="n">
-        <v>6223770.082964829</v>
+        <v>2998861.914335027</v>
       </c>
       <c r="J37" t="n">
-        <v>4490434.920761732</v>
+        <v>3445780.292944363</v>
       </c>
       <c r="K37" t="n">
-        <v>6068091.195862036</v>
+        <v>3876140.775701285</v>
       </c>
       <c r="L37" t="n">
-        <v>6494669.820484989</v>
+        <v>3553223.597469856</v>
       </c>
       <c r="M37" t="n">
-        <v>6319397.833049729</v>
+        <v>3117033.451826405</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1538935.587616683</v>
+        <v>4527892.9797159</v>
       </c>
       <c r="C38" t="n">
-        <v>2516978.286696227</v>
+        <v>4156545.562027409</v>
       </c>
       <c r="D38" t="n">
-        <v>2229826.598658693</v>
+        <v>4505759.014026851</v>
       </c>
       <c r="E38" t="n">
-        <v>1182584.681672369</v>
+        <v>4439548.353484471</v>
       </c>
       <c r="F38" t="n">
-        <v>1572374.320390795</v>
+        <v>4745387.859126215</v>
       </c>
       <c r="G38" t="n">
-        <v>2550417.019470339</v>
+        <v>4374040.441437724</v>
       </c>
       <c r="H38" t="n">
-        <v>2263265.331432805</v>
+        <v>4723253.893437167</v>
       </c>
       <c r="I38" t="n">
-        <v>1216023.414446481</v>
+        <v>4657043.232894787</v>
       </c>
       <c r="J38" t="n">
-        <v>1605813.053164908</v>
+        <v>4962882.73853653</v>
       </c>
       <c r="K38" t="n">
-        <v>2583855.752244452</v>
+        <v>4591535.320848039</v>
       </c>
       <c r="L38" t="n">
-        <v>2296704.064206917</v>
+        <v>4940748.772847482</v>
       </c>
       <c r="M38" t="n">
-        <v>1249462.147220593</v>
+        <v>4874538.112305102</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4184966.721876781</v>
+        <v>4705380.05339365</v>
       </c>
       <c r="C39" t="n">
-        <v>4461389.12131959</v>
+        <v>4490673.739627974</v>
       </c>
       <c r="D39" t="n">
-        <v>4434536.569720839</v>
+        <v>4696747.551064204</v>
       </c>
       <c r="E39" t="n">
-        <v>4752112.51039336</v>
+        <v>4534806.610552624</v>
       </c>
       <c r="F39" t="n">
-        <v>4343035.671432819</v>
+        <v>5065621.842555515</v>
       </c>
       <c r="G39" t="n">
-        <v>4619458.070875628</v>
+        <v>4850915.528789839</v>
       </c>
       <c r="H39" t="n">
-        <v>4592605.519276877</v>
+        <v>5056989.340226069</v>
       </c>
       <c r="I39" t="n">
-        <v>4910181.459949397</v>
+        <v>4895048.399714489</v>
       </c>
       <c r="J39" t="n">
-        <v>4501104.620988857</v>
+        <v>5425863.631717379</v>
       </c>
       <c r="K39" t="n">
-        <v>4777527.020431666</v>
+        <v>5211157.317951703</v>
       </c>
       <c r="L39" t="n">
-        <v>4750674.468832915</v>
+        <v>5417231.129387934</v>
       </c>
       <c r="M39" t="n">
-        <v>5068250.409505435</v>
+        <v>5255290.188876353</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12199996.62299153</v>
+        <v>4933716.978601443</v>
       </c>
       <c r="C40" t="n">
-        <v>13327755.65667626</v>
+        <v>4776442.019373715</v>
       </c>
       <c r="D40" t="n">
-        <v>13109199.86416258</v>
+        <v>4929941.062559142</v>
       </c>
       <c r="E40" t="n">
-        <v>13275878.19123833</v>
+        <v>4395452.976652878</v>
       </c>
       <c r="F40" t="n">
-        <v>12911434.55304058</v>
+        <v>4653870.435056465</v>
       </c>
       <c r="G40" t="n">
-        <v>14039193.5867253</v>
+        <v>4496595.475828737</v>
       </c>
       <c r="H40" t="n">
-        <v>13820637.79421163</v>
+        <v>4650094.519014164</v>
       </c>
       <c r="I40" t="n">
-        <v>13987316.12128738</v>
+        <v>4115606.4331079</v>
       </c>
       <c r="J40" t="n">
-        <v>13622872.48308962</v>
+        <v>4374023.891511487</v>
       </c>
       <c r="K40" t="n">
-        <v>14750631.51677435</v>
+        <v>4216748.932283759</v>
       </c>
       <c r="L40" t="n">
-        <v>14532075.72426068</v>
+        <v>4370247.975469186</v>
       </c>
       <c r="M40" t="n">
-        <v>14698754.05133642</v>
+        <v>3835759.889562922</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6483930.991058178</v>
+        <v>3137337.642633376</v>
       </c>
       <c r="C41" t="n">
-        <v>6732497.395936761</v>
+        <v>3155252.231431841</v>
       </c>
       <c r="D41" t="n">
-        <v>6904454.801691432</v>
+        <v>3440536.507658601</v>
       </c>
       <c r="E41" t="n">
-        <v>8631979.549898513</v>
+        <v>3125151.999910406</v>
       </c>
       <c r="F41" t="n">
-        <v>6474410.532890543</v>
+        <v>3276040.087128998</v>
       </c>
       <c r="G41" t="n">
-        <v>6722976.937769126</v>
+        <v>3293954.675927463</v>
       </c>
       <c r="H41" t="n">
-        <v>6894934.343523797</v>
+        <v>3579238.952154223</v>
       </c>
       <c r="I41" t="n">
-        <v>8622459.091730878</v>
+        <v>3263854.444406028</v>
       </c>
       <c r="J41" t="n">
-        <v>6464890.074722908</v>
+        <v>3414742.53162462</v>
       </c>
       <c r="K41" t="n">
-        <v>6713456.479601491</v>
+        <v>3432657.120423085</v>
       </c>
       <c r="L41" t="n">
-        <v>6885413.885356162</v>
+        <v>3717941.396649845</v>
       </c>
       <c r="M41" t="n">
-        <v>8612938.633563243</v>
+        <v>3402556.88890165</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9359783.322108986</v>
+        <v>4159720.53454372</v>
       </c>
       <c r="C42" t="n">
-        <v>10381877.38468152</v>
+        <v>4220154.774401884</v>
       </c>
       <c r="D42" t="n">
-        <v>11278154.59063431</v>
+        <v>4326644.896035932</v>
       </c>
       <c r="E42" t="n">
-        <v>11704920.83389215</v>
+        <v>4094776.061871636</v>
       </c>
       <c r="F42" t="n">
-        <v>10006290.57440845</v>
+        <v>4319547.024900948</v>
       </c>
       <c r="G42" t="n">
-        <v>11028384.63698098</v>
+        <v>4379981.264759111</v>
       </c>
       <c r="H42" t="n">
-        <v>11924661.84293377</v>
+        <v>4486471.38639316</v>
       </c>
       <c r="I42" t="n">
-        <v>12351428.08619161</v>
+        <v>4254602.552228863</v>
       </c>
       <c r="J42" t="n">
-        <v>10652797.82670792</v>
+        <v>4479373.515258175</v>
       </c>
       <c r="K42" t="n">
-        <v>11674891.88928045</v>
+        <v>4539807.755116339</v>
       </c>
       <c r="L42" t="n">
-        <v>12571169.09523324</v>
+        <v>4646297.876750387</v>
       </c>
       <c r="M42" t="n">
-        <v>12997935.33849108</v>
+        <v>4414429.042586091</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4532802.860190961</v>
+        <v>2903796.133022542</v>
       </c>
       <c r="C43" t="n">
-        <v>4910550.135023777</v>
+        <v>3170383.354578835</v>
       </c>
       <c r="D43" t="n">
-        <v>5608808.573350891</v>
+        <v>3215239.89161471</v>
       </c>
       <c r="E43" t="n">
-        <v>5559544.262807332</v>
+        <v>2884785.569762053</v>
       </c>
       <c r="F43" t="n">
-        <v>4689594.442821893</v>
+        <v>2961629.881260433</v>
       </c>
       <c r="G43" t="n">
-        <v>5067341.71765471</v>
+        <v>3228217.102816726</v>
       </c>
       <c r="H43" t="n">
-        <v>5765600.155981824</v>
+        <v>3273073.639852602</v>
       </c>
       <c r="I43" t="n">
-        <v>5716335.845438264</v>
+        <v>2942619.317999944</v>
       </c>
       <c r="J43" t="n">
-        <v>4846386.025452825</v>
+        <v>3019463.629498324</v>
       </c>
       <c r="K43" t="n">
-        <v>5224133.300285642</v>
+        <v>3286050.851054617</v>
       </c>
       <c r="L43" t="n">
-        <v>5922391.738612756</v>
+        <v>3330907.388090493</v>
       </c>
       <c r="M43" t="n">
-        <v>5873127.428069197</v>
+        <v>3000453.066237835</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13669392.04044352</v>
+        <v>5585200.335914931</v>
       </c>
       <c r="C44" t="n">
-        <v>14183013.5490736</v>
+        <v>5995447.771262195</v>
       </c>
       <c r="D44" t="n">
-        <v>13970861.70066892</v>
+        <v>5859418.63084635</v>
       </c>
       <c r="E44" t="n">
-        <v>14841765.62389779</v>
+        <v>5566284.965365796</v>
       </c>
       <c r="F44" t="n">
-        <v>14495462.81884059</v>
+        <v>5712606.799095317</v>
       </c>
       <c r="G44" t="n">
-        <v>15009084.32747067</v>
+        <v>6122854.23444258</v>
       </c>
       <c r="H44" t="n">
-        <v>14796932.47906599</v>
+        <v>5986825.094026736</v>
       </c>
       <c r="I44" t="n">
-        <v>15667836.40229486</v>
+        <v>5693691.428546182</v>
       </c>
       <c r="J44" t="n">
-        <v>15321533.59723766</v>
+        <v>5840013.262275702</v>
       </c>
       <c r="K44" t="n">
-        <v>15835155.10586774</v>
+        <v>6250260.697622966</v>
       </c>
       <c r="L44" t="n">
-        <v>15623003.25746305</v>
+        <v>6114231.557207122</v>
       </c>
       <c r="M44" t="n">
-        <v>16493907.18069193</v>
+        <v>5821097.891726567</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4216204.454335663</v>
+        <v>2808907.060931074</v>
       </c>
       <c r="C45" t="n">
-        <v>4427773.905304895</v>
+        <v>2943404.794621095</v>
       </c>
       <c r="D45" t="n">
-        <v>5012747.603476875</v>
+        <v>3114664.277591755</v>
       </c>
       <c r="E45" t="n">
-        <v>5012611.45770449</v>
+        <v>2961359.868434179</v>
       </c>
       <c r="F45" t="n">
-        <v>4309112.823335714</v>
+        <v>2877445.137641621</v>
       </c>
       <c r="G45" t="n">
-        <v>4520682.274304946</v>
+        <v>3011942.871331641</v>
       </c>
       <c r="H45" t="n">
-        <v>5105655.972476927</v>
+        <v>3183202.354302301</v>
       </c>
       <c r="I45" t="n">
-        <v>5105519.826704541</v>
+        <v>3029897.945144725</v>
       </c>
       <c r="J45" t="n">
-        <v>4402021.192335765</v>
+        <v>2945983.214352167</v>
       </c>
       <c r="K45" t="n">
-        <v>4613590.643304997</v>
+        <v>3080480.948042188</v>
       </c>
       <c r="L45" t="n">
-        <v>5198564.341476978</v>
+        <v>3251740.431012847</v>
       </c>
       <c r="M45" t="n">
-        <v>5198428.195704592</v>
+        <v>3098436.021855272</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9579810.249111148</v>
+        <v>2236238.952280115</v>
       </c>
       <c r="C46" t="n">
-        <v>11355480.76043187</v>
+        <v>2193183.349679545</v>
       </c>
       <c r="D46" t="n">
-        <v>12400223.06812789</v>
+        <v>2099066.511382469</v>
       </c>
       <c r="E46" t="n">
-        <v>13045517.56927953</v>
+        <v>2264329.136544462</v>
       </c>
       <c r="F46" t="n">
-        <v>10172595.41718435</v>
+        <v>2246266.983110759</v>
       </c>
       <c r="G46" t="n">
-        <v>11948265.92850507</v>
+        <v>2203211.38051019</v>
       </c>
       <c r="H46" t="n">
-        <v>12993008.2362011</v>
+        <v>2109094.542213113</v>
       </c>
       <c r="I46" t="n">
-        <v>13638302.73735273</v>
+        <v>2274357.167375106</v>
       </c>
       <c r="J46" t="n">
-        <v>10765380.58525756</v>
+        <v>2256295.013941403</v>
       </c>
       <c r="K46" t="n">
-        <v>12541051.09657828</v>
+        <v>2213239.411340834</v>
       </c>
       <c r="L46" t="n">
-        <v>13585793.40427431</v>
+        <v>2119122.573043757</v>
       </c>
       <c r="M46" t="n">
-        <v>14231087.90542594</v>
+        <v>2284385.19820575</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2298516.750660008</v>
+        <v>1868864.589760403</v>
       </c>
       <c r="C47" t="n">
-        <v>2358248.143259081</v>
+        <v>1899768.626360287</v>
       </c>
       <c r="D47" t="n">
-        <v>2483616.063811154</v>
+        <v>1976293.822369125</v>
       </c>
       <c r="E47" t="n">
-        <v>2434812.728073479</v>
+        <v>2017727.083947882</v>
       </c>
       <c r="F47" t="n">
-        <v>2491860.666582972</v>
+        <v>2024603.454011271</v>
       </c>
       <c r="G47" t="n">
-        <v>2551592.059182045</v>
+        <v>2055507.490611156</v>
       </c>
       <c r="H47" t="n">
-        <v>2676959.979734118</v>
+        <v>2132032.686619993</v>
       </c>
       <c r="I47" t="n">
-        <v>2628156.643996443</v>
+        <v>2173465.94819875</v>
       </c>
       <c r="J47" t="n">
-        <v>2685204.582505936</v>
+        <v>2180342.31826214</v>
       </c>
       <c r="K47" t="n">
-        <v>2744935.975105009</v>
+        <v>2211246.354862025</v>
       </c>
       <c r="L47" t="n">
-        <v>2870303.895657082</v>
+        <v>2287771.550870862</v>
       </c>
       <c r="M47" t="n">
-        <v>2821500.559919407</v>
+        <v>2329204.812449619</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>432144.9871138786</v>
+        <v>5335557.830253721</v>
       </c>
       <c r="C48" t="n">
-        <v>383039.3465138816</v>
+        <v>5220288.468258378</v>
       </c>
       <c r="D48" t="n">
-        <v>431360.3976682685</v>
+        <v>5399252.511979111</v>
       </c>
       <c r="E48" t="n">
-        <v>542902.6656334103</v>
+        <v>5329111.373764675</v>
       </c>
       <c r="F48" t="n">
-        <v>468593.5563777727</v>
+        <v>5656117.944540606</v>
       </c>
       <c r="G48" t="n">
-        <v>419487.9157777757</v>
+        <v>5540848.582545263</v>
       </c>
       <c r="H48" t="n">
-        <v>467808.9669321626</v>
+        <v>5719812.626265996</v>
       </c>
       <c r="I48" t="n">
-        <v>579351.2348973044</v>
+        <v>5649671.48805156</v>
       </c>
       <c r="J48" t="n">
-        <v>505042.1256416668</v>
+        <v>5976678.058827491</v>
       </c>
       <c r="K48" t="n">
-        <v>455936.4850416698</v>
+        <v>5861408.696832147</v>
       </c>
       <c r="L48" t="n">
-        <v>504257.5361960567</v>
+        <v>6040372.740552881</v>
       </c>
       <c r="M48" t="n">
-        <v>615799.8041611986</v>
+        <v>5970231.602338444</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>689790.7962991212</v>
+        <v>818410.2410204686</v>
       </c>
       <c r="C49" t="n">
-        <v>810458.3363431417</v>
+        <v>861872.1826165987</v>
       </c>
       <c r="D49" t="n">
-        <v>839451.6209559527</v>
+        <v>907225.3264557909</v>
       </c>
       <c r="E49" t="n">
-        <v>864499.0986455851</v>
+        <v>872837.8651933712</v>
       </c>
       <c r="F49" t="n">
-        <v>722309.7077539003</v>
+        <v>891902.1689072551</v>
       </c>
       <c r="G49" t="n">
-        <v>842977.2477979208</v>
+        <v>935364.1105033851</v>
       </c>
       <c r="H49" t="n">
-        <v>871970.5324107318</v>
+        <v>980717.2543425773</v>
       </c>
       <c r="I49" t="n">
-        <v>897018.0101003642</v>
+        <v>946329.7930801576</v>
       </c>
       <c r="J49" t="n">
-        <v>754828.6192086794</v>
+        <v>965394.0967940415</v>
       </c>
       <c r="K49" t="n">
-        <v>875496.1592526999</v>
+        <v>1008856.038390171</v>
       </c>
       <c r="L49" t="n">
-        <v>904489.4438655109</v>
+        <v>1054209.182229364</v>
       </c>
       <c r="M49" t="n">
-        <v>929536.9215551433</v>
+        <v>1019821.720966944</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1813698.91754505</v>
+        <v>2892802.500601493</v>
       </c>
       <c r="C50" t="n">
-        <v>1889217.055289971</v>
+        <v>2880081.110131232</v>
       </c>
       <c r="D50" t="n">
-        <v>1921125.206462455</v>
+        <v>3043671.866876129</v>
       </c>
       <c r="E50" t="n">
-        <v>2040230.268785466</v>
+        <v>2961629.315619871</v>
       </c>
       <c r="F50" t="n">
-        <v>1972158.994548088</v>
+        <v>3138165.321447942</v>
       </c>
       <c r="G50" t="n">
-        <v>2047677.132293009</v>
+        <v>3125443.930977682</v>
       </c>
       <c r="H50" t="n">
-        <v>2079585.283465493</v>
+        <v>3289034.687722579</v>
       </c>
       <c r="I50" t="n">
-        <v>2198690.345788503</v>
+        <v>3206992.13646632</v>
       </c>
       <c r="J50" t="n">
-        <v>2130619.071551125</v>
+        <v>3383528.142294392</v>
       </c>
       <c r="K50" t="n">
-        <v>2206137.209296046</v>
+        <v>3370806.751824131</v>
       </c>
       <c r="L50" t="n">
-        <v>2238045.36046853</v>
+        <v>3534397.508569028</v>
       </c>
       <c r="M50" t="n">
-        <v>2357150.422791541</v>
+        <v>3452354.95731277</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2925623.725316389</v>
+        <v>3182486.203111976</v>
       </c>
       <c r="C51" t="n">
-        <v>2977153.189378452</v>
+        <v>3131509.167309931</v>
       </c>
       <c r="D51" t="n">
-        <v>3049567.833768936</v>
+        <v>3258518.684081056</v>
       </c>
       <c r="E51" t="n">
-        <v>3208779.608245583</v>
+        <v>3329908.295232757</v>
       </c>
       <c r="F51" t="n">
-        <v>3173617.799224306</v>
+        <v>3447692.971162254</v>
       </c>
       <c r="G51" t="n">
-        <v>3225147.26328637</v>
+        <v>3396715.935360209</v>
       </c>
       <c r="H51" t="n">
-        <v>3297561.907676854</v>
+        <v>3523725.452131334</v>
       </c>
       <c r="I51" t="n">
-        <v>3456773.682153501</v>
+        <v>3595115.063283034</v>
       </c>
       <c r="J51" t="n">
-        <v>3421611.873132224</v>
+        <v>3712899.739212532</v>
       </c>
       <c r="K51" t="n">
-        <v>3473141.337194287</v>
+        <v>3661922.703410487</v>
       </c>
       <c r="L51" t="n">
-        <v>3545555.981584771</v>
+        <v>3788932.220181611</v>
       </c>
       <c r="M51" t="n">
-        <v>3704767.756061418</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2943801.941351752</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3081013.649354492</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2938465.559117243</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3169303.529008792</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3060254.473700733</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3197466.181703473</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3054918.091466224</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3285756.061357773</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3176707.006049715</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3313918.714052455</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3171370.623815205</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3402208.593706754</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1668558.680538855</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1696464.300549491</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1829785.523518062</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1791473.211416735</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1810937.097235037</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1838842.717245672</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1972163.940214244</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1933851.628112916</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1953315.513931219</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1981221.133941854</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2114542.356910425</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2076230.044809098</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>676530.3786224219</v>
-      </c>
-      <c r="C54" t="n">
-        <v>951531.1598523717</v>
-      </c>
-      <c r="D54" t="n">
-        <v>758511.8466476168</v>
-      </c>
-      <c r="E54" t="n">
-        <v>676362.9008435333</v>
-      </c>
-      <c r="F54" t="n">
-        <v>681795.2888466971</v>
-      </c>
-      <c r="G54" t="n">
-        <v>956796.0700766469</v>
-      </c>
-      <c r="H54" t="n">
-        <v>763776.756871892</v>
-      </c>
-      <c r="I54" t="n">
-        <v>681627.8110678085</v>
-      </c>
-      <c r="J54" t="n">
-        <v>687060.1990709723</v>
-      </c>
-      <c r="K54" t="n">
-        <v>962060.9803009221</v>
-      </c>
-      <c r="L54" t="n">
-        <v>769041.6670961672</v>
-      </c>
-      <c r="M54" t="n">
-        <v>686892.7212920837</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>2660300.187019721</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3104882.426407867</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3535249.390707456</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3212330.132801481</v>
-      </c>
-      <c r="F55" t="n">
-        <v>2766427.451030206</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3211009.690418352</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3641376.654717941</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3318457.396811966</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2872554.715040692</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3317136.954428837</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3747503.918728426</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3424584.660822451</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>4361256.767836734</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4617396.918045496</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4246050.40870598</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4595264.755014037</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4592607.088832195</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4848747.239040957</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4477400.729701441</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4826615.076009498</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4823957.409827656</v>
-      </c>
-      <c r="K56" t="n">
-        <v>5080097.560036418</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4708751.050696902</v>
-      </c>
-      <c r="M56" t="n">
-        <v>5057965.397004959</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4733753.707314748</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5226350.74978987</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5011648.489785841</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5217743.869339526</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5129867.345229182</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5622464.387704304</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5407762.127700275</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5613857.50725396</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5525980.983143616</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6018578.025618738</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5803875.765614709</v>
-      </c>
-      <c r="M57" t="n">
-        <v>6009971.145168394</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5065924.553441543</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5407885.998922857</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5373723.597384841</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5647974.23701143</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5303234.862487681</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5645196.307968996</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5611033.906430979</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5885284.546057568</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5540545.171533819</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5882506.617015134</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5848344.215477117</v>
-      </c>
-      <c r="M58" t="n">
-        <v>6122594.855103706</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3156762.340052092</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3233581.434120827</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3251497.277993531</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3536782.770008401</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3310395.987594139</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3387215.081662874</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3405130.925535578</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3690416.417550447</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3464029.635136185</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3540848.72920492</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3558764.573077624</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3844050.065092493</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4153140.795256772</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4286691.28768683</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4347127.089962056</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4453618.7294178</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4332654.830987026</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4466205.323417084</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4526641.12569231</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4633132.765148054</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4512168.86671728</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4645719.359147338</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4706155.161422564</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4812646.800878308</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2905463.385739878</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2933310.776636482</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3199898.690190541</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3244755.894270424</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2967915.45614665</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2995762.847043254</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3262350.760597313</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3307207.964677196</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3030367.526553422</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3058214.917450026</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3324802.831004085</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3369660.035083969</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5650671.135490032</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5767109.60160013</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6177358.08234261</v>
-      </c>
-      <c r="E62" t="n">
-        <v>6041329.965910343</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5806131.721193904</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5922570.187304002</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6332818.668046482</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6196790.551614216</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5961592.306897776</v>
-      </c>
-      <c r="K62" t="n">
-        <v>6078030.773007874</v>
-      </c>
-      <c r="L62" t="n">
-        <v>6488279.253750354</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6352251.137318088</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2968640.427027347</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2919076.336192712</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3053574.084217499</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3224833.594603601</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3054089.819455571</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3004525.728620937</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3139023.476645724</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3310282.987031826</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3139539.211883796</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3089975.121049162</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3224472.869073949</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3395732.379460051</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2392654.088674189</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2359501.497025379</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2316446.546564962</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2222330.348553804</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2421684.195414438</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2388531.603765628</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2345476.653305211</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2251360.455294053</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2450714.302154687</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2417561.710505878</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2374506.76004546</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2280390.562034302</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2396156.412918006</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2402432.65567457</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2433336.458171757</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2509886.304951339</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2595836.475731508</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2602112.718488072</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2633016.520985259</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2709566.36776484</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2795516.53854501</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2801792.781301574</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2832696.583798761</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2909246.430578342</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5373212.960155179</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5607539.556668517</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5492274.975274298</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5671243.56358373</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5721931.993433678</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5956258.589947016</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5840994.008552797</v>
-      </c>
-      <c r="I66" t="n">
-        <v>6019962.596862229</v>
-      </c>
-      <c r="J66" t="n">
-        <v>6070651.026712176</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6304977.623225515</v>
-      </c>
-      <c r="L66" t="n">
-        <v>6189713.041831296</v>
-      </c>
-      <c r="M66" t="n">
-        <v>6368681.630140727</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>815647.8834396804</v>
-      </c>
-      <c r="C67" t="n">
-        <v>820016.8049356994</v>
-      </c>
-      <c r="D67" t="n">
-        <v>863478.9266587939</v>
-      </c>
-      <c r="E67" t="n">
-        <v>908832.2425467961</v>
-      </c>
-      <c r="F67" t="n">
-        <v>889409.3139271204</v>
-      </c>
-      <c r="G67" t="n">
-        <v>893778.2354231394</v>
-      </c>
-      <c r="H67" t="n">
-        <v>937240.3571462339</v>
-      </c>
-      <c r="I67" t="n">
-        <v>982593.6730342361</v>
-      </c>
-      <c r="J67" t="n">
-        <v>963170.7444145604</v>
-      </c>
-      <c r="K67" t="n">
-        <v>967539.6659105794</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1011001.787633674</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1056355.103521676</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2949532.496247273</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3088459.723302326</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3075740.097176906</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3239336.376162944</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3205346.557026036</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3344273.784081089</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3331554.157955669</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3495150.436941708</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3461160.617804799</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3600087.844859852</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3587368.218734432</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3750964.497720471</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2829620.513563056</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2937603.664976616</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2886621.196959287</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3013619.755624156</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3065422.999133994</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3173406.150547554</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3122423.682530225</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3249422.241195093</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3301225.484704931</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3409208.636118491</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3358226.168101162</v>
-      </c>
-      <c r="M69" t="n">
-        <v>3485224.72676603</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>47563779.18802774</v>
-      </c>
-      <c r="C70" t="n">
-        <v>53830429.69241481</v>
-      </c>
-      <c r="D70" t="n">
-        <v>58596092.11321363</v>
-      </c>
-      <c r="E70" t="n">
-        <v>65353306.40010154</v>
-      </c>
-      <c r="F70" t="n">
-        <v>70819883.86746646</v>
-      </c>
-      <c r="G70" t="n">
-        <v>77086534.37185353</v>
-      </c>
-      <c r="H70" t="n">
-        <v>81852196.79265235</v>
-      </c>
-      <c r="I70" t="n">
-        <v>88609411.07954025</v>
-      </c>
-      <c r="J70" t="n">
-        <v>94075988.54690517</v>
-      </c>
-      <c r="K70" t="n">
-        <v>100342639.0512922</v>
-      </c>
-      <c r="L70" t="n">
-        <v>105108301.4720911</v>
-      </c>
-      <c r="M70" t="n">
-        <v>111865515.758979</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>27750038.12337247</v>
-      </c>
-      <c r="C71" t="n">
-        <v>32701723.75429591</v>
-      </c>
-      <c r="D71" t="n">
-        <v>34979589.88911744</v>
-      </c>
-      <c r="E71" t="n">
-        <v>41433457.84434563</v>
-      </c>
-      <c r="F71" t="n">
-        <v>36125160.43636013</v>
-      </c>
-      <c r="G71" t="n">
-        <v>41076846.06728356</v>
-      </c>
-      <c r="H71" t="n">
-        <v>43354712.2021051</v>
-      </c>
-      <c r="I71" t="n">
-        <v>49808580.15733328</v>
-      </c>
-      <c r="J71" t="n">
-        <v>44500282.74934778</v>
-      </c>
-      <c r="K71" t="n">
-        <v>49451968.38027122</v>
-      </c>
-      <c r="L71" t="n">
-        <v>51729834.51509275</v>
-      </c>
-      <c r="M71" t="n">
-        <v>58183702.47032094</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>1745036.475239553</v>
-      </c>
-      <c r="C72" t="n">
-        <v>455283.5524816837</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1669152.848624123</v>
-      </c>
-      <c r="E72" t="n">
-        <v>489632.3316943166</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1662050.327922908</v>
-      </c>
-      <c r="G72" t="n">
-        <v>372297.405165039</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1586166.701307479</v>
-      </c>
-      <c r="I72" t="n">
-        <v>406646.1843776722</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1579064.180606264</v>
-      </c>
-      <c r="K72" t="n">
-        <v>289311.2578483946</v>
-      </c>
-      <c r="L72" t="n">
-        <v>1503180.553990834</v>
-      </c>
-      <c r="M72" t="n">
-        <v>323660.0370610277</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>11577745.89915661</v>
-      </c>
-      <c r="C73" t="n">
-        <v>12094744.9983113</v>
-      </c>
-      <c r="D73" t="n">
-        <v>12281303.266732</v>
-      </c>
-      <c r="E73" t="n">
-        <v>12721272.65143936</v>
-      </c>
-      <c r="F73" t="n">
-        <v>12569651.55263629</v>
-      </c>
-      <c r="G73" t="n">
-        <v>13086650.65179098</v>
-      </c>
-      <c r="H73" t="n">
-        <v>13273208.92021168</v>
-      </c>
-      <c r="I73" t="n">
-        <v>13713178.30491905</v>
-      </c>
-      <c r="J73" t="n">
-        <v>13561557.20611597</v>
-      </c>
-      <c r="K73" t="n">
-        <v>14078556.30527066</v>
-      </c>
-      <c r="L73" t="n">
-        <v>14265114.57369136</v>
-      </c>
-      <c r="M73" t="n">
-        <v>14705083.95839873</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>16678685.29122554</v>
-      </c>
-      <c r="C74" t="n">
-        <v>19049861.68896435</v>
-      </c>
-      <c r="D74" t="n">
-        <v>20144982.38144908</v>
-      </c>
-      <c r="E74" t="n">
-        <v>20659134.51777365</v>
-      </c>
-      <c r="F74" t="n">
-        <v>17072306.11101224</v>
-      </c>
-      <c r="G74" t="n">
-        <v>19443482.50875105</v>
-      </c>
-      <c r="H74" t="n">
-        <v>20538603.20123578</v>
-      </c>
-      <c r="I74" t="n">
-        <v>21052755.33756034</v>
-      </c>
-      <c r="J74" t="n">
-        <v>17465926.93079894</v>
-      </c>
-      <c r="K74" t="n">
-        <v>19837103.32853775</v>
-      </c>
-      <c r="L74" t="n">
-        <v>20932224.02102248</v>
-      </c>
-      <c r="M74" t="n">
-        <v>21446376.15734704</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>27914939.8065628</v>
-      </c>
-      <c r="C75" t="n">
-        <v>30589932.25678274</v>
-      </c>
-      <c r="D75" t="n">
-        <v>30876218.27938303</v>
-      </c>
-      <c r="E75" t="n">
-        <v>33888402.88766016</v>
-      </c>
-      <c r="F75" t="n">
-        <v>30085736.97850607</v>
-      </c>
-      <c r="G75" t="n">
-        <v>32760729.428726</v>
-      </c>
-      <c r="H75" t="n">
-        <v>33047015.45132629</v>
-      </c>
-      <c r="I75" t="n">
-        <v>36059200.05960342</v>
-      </c>
-      <c r="J75" t="n">
-        <v>32256534.15044934</v>
-      </c>
-      <c r="K75" t="n">
-        <v>34931526.60066927</v>
-      </c>
-      <c r="L75" t="n">
-        <v>35217812.62326957</v>
-      </c>
-      <c r="M75" t="n">
-        <v>38229997.2315467</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>19825649.98304244</v>
-      </c>
-      <c r="C76" t="n">
-        <v>20040054.46356663</v>
-      </c>
-      <c r="D76" t="n">
-        <v>21462802.71925783</v>
-      </c>
-      <c r="E76" t="n">
-        <v>21848971.42026044</v>
-      </c>
-      <c r="F76" t="n">
-        <v>21477797.20659769</v>
-      </c>
-      <c r="G76" t="n">
-        <v>21692201.68712188</v>
-      </c>
-      <c r="H76" t="n">
-        <v>23114949.94281308</v>
-      </c>
-      <c r="I76" t="n">
-        <v>23501118.64381569</v>
-      </c>
-      <c r="J76" t="n">
-        <v>23129944.43015295</v>
-      </c>
-      <c r="K76" t="n">
-        <v>23344348.91067713</v>
-      </c>
-      <c r="L76" t="n">
-        <v>24767097.16636833</v>
-      </c>
-      <c r="M76" t="n">
-        <v>25153265.86737094</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>22997274.35586884</v>
-      </c>
-      <c r="C77" t="n">
-        <v>24893498.25909543</v>
-      </c>
-      <c r="D77" t="n">
-        <v>25580251.35021157</v>
-      </c>
-      <c r="E77" t="n">
-        <v>26349529.07877709</v>
-      </c>
-      <c r="F77" t="n">
-        <v>27016495.48512464</v>
-      </c>
-      <c r="G77" t="n">
-        <v>28912719.38835124</v>
-      </c>
-      <c r="H77" t="n">
-        <v>29599472.47946737</v>
-      </c>
-      <c r="I77" t="n">
-        <v>30368750.20803289</v>
-      </c>
-      <c r="J77" t="n">
-        <v>31035716.61438044</v>
-      </c>
-      <c r="K77" t="n">
-        <v>32931940.51760704</v>
-      </c>
-      <c r="L77" t="n">
-        <v>33618693.60872317</v>
-      </c>
-      <c r="M77" t="n">
-        <v>34387971.33728869</v>
+        <v>3860321.831333312</v>
       </c>
     </row>
   </sheetData>
